--- a/spliced/falling/2023-03-25_18-03-49/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3139847218990326</v>
+        <v>-0.1360424668951469</v>
       </c>
       <c r="B2" t="n">
-        <v>0.365755558013916</v>
+        <v>0.3186911859295585</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.05561650341207323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.09199075129899148</v>
+        <v>-0.2708076590841467</v>
       </c>
       <c r="B3" t="n">
-        <v>0.302864204753529</v>
+        <v>0.3116106986999512</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2070000191981139</v>
+        <v>0.0008329986171288634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01230060461569882</v>
+        <v>-0.3139847218990326</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3993948210369431</v>
+        <v>0.365755558013916</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9949190426956491</v>
+        <v>-0.0809396430850029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3243139045820992</v>
+        <v>-0.09199075129899148</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5972596244378523</v>
+        <v>0.302864204753529</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.587486072020097</v>
+        <v>-0.2070000191981139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.9380390860817602</v>
+        <v>0.01230060461569882</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.513376929543232</v>
+        <v>-0.3993948210369431</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.357259793715038</v>
+        <v>-0.9949190426956491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2036124901338088</v>
+        <v>0.3243139045820992</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2562440525401761</v>
+        <v>-0.5972596244378523</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1245054331692872</v>
+        <v>-1.587486072020097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2954227382486529</v>
+        <v>-0.9380390860817602</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008163343776357967</v>
+        <v>-1.513376929543232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4832359877499712</v>
+        <v>-3.357259793715038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3702815256335535</v>
+        <v>-0.2036124901338088</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7731332995674872</v>
+        <v>-0.2562440525401761</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.987241875041621</v>
+        <v>-0.1245054331692872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1218537308953028</v>
+        <v>0.2954227382486529</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1149676279588187</v>
+        <v>0.008163343776357967</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5308419032530356</v>
+        <v>0.4832359877499712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.7092561884359876</v>
+        <v>-0.3702815256335535</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.314401550726458</v>
+        <v>-0.7731332995674872</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9030254652554355</v>
+        <v>-1.987241875041621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9390387182885965</v>
+        <v>-0.1218537308953028</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6636356765573627</v>
+        <v>-0.1149676279588187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2282692268490727</v>
+        <v>-0.5308419032530356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3692680299282074</v>
+        <v>-0.7092561884359876</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.486374378204346</v>
+        <v>-1.314401550726458</v>
       </c>
       <c r="C13" t="n">
-        <v>2.66978645324707</v>
+        <v>-0.9030254652554355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7195992388508516</v>
+        <v>-0.9390387182885965</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8889339186928424</v>
+        <v>-0.6636356765573627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3780700483105441</v>
+        <v>0.2282692268490727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.744853258132938</v>
+        <v>-0.3692680299282074</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.628608725287703</v>
+        <v>-2.486374378204346</v>
       </c>
       <c r="C15" t="n">
-        <v>2.057380207560282</v>
+        <v>2.66978645324707</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.074428666721691</v>
+        <v>0.7195992388508516</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7690515951676815</v>
+        <v>0.8889339186928424</v>
       </c>
       <c r="C16" t="n">
-        <v>1.639270782470704</v>
+        <v>0.3780700483105441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.2539533461359424</v>
+        <v>-1.744853258132938</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.02276861396702762</v>
+        <v>-2.628608725287703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6248873986981154</v>
+        <v>2.057380207560282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.05406157367608758</v>
+        <v>-1.074428666721691</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4298825345256099</v>
+        <v>-0.7690515951676815</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1093171049248081</v>
+        <v>1.639270782470704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0573519143191249</v>
+        <v>-0.2539533461359424</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5145012542012748</v>
+        <v>-0.02276861396702762</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1331963850693274</v>
+        <v>0.6248873986981154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1042219359766348</v>
+        <v>-0.05406157367608758</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04282998323271233</v>
+        <v>0.4298825345256099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08976942436261562</v>
+        <v>-0.1093171049248081</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.05878189815716307</v>
+        <v>0.0573519143191249</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06641771102493452</v>
+        <v>0.5145012542012748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004026171835987413</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.06514044986529789</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.007274850525639441</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1091644005341966</v>
+        <v>-0.1331963850693274</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-49/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-49/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1360424668951469</v>
+        <v>0.007011067026972018</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3186911859295585</v>
+        <v>-0.03245915641838846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05561650341207323</v>
+        <v>0.03166781107641074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2708076590841467</v>
+        <v>-0.0004164990228177805</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3116106986999512</v>
+        <v>-0.01167585594918232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008329986171288634</v>
+        <v>-0.0006108652715655517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3139847218990326</v>
+        <v>-0.0122173046693205</v>
       </c>
       <c r="B4" t="n">
-        <v>0.365755558013916</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0809396430850029</v>
+        <v>0.0039706239476799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.09199075129899148</v>
+        <v>-0.04220523541285226</v>
       </c>
       <c r="B5" t="n">
-        <v>0.302864204753529</v>
+        <v>0.007899598006836298</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2070000191981139</v>
+        <v>0.001610462892461813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01230060461569882</v>
+        <v>-0.01571589649062261</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3993948210369431</v>
+        <v>-0.009926560250195525</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9949190426956491</v>
+        <v>0.002873843345283052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3243139045820992</v>
+        <v>0.007719115523452058</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5972596244378523</v>
+        <v>-0.02122756669467137</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.587486072020097</v>
+        <v>0.02797485068863757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9380390860817602</v>
+        <v>-0.01150925694541499</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.513376929543232</v>
+        <v>-0.008524346549000439</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.357259793715038</v>
+        <v>0.01102334066209471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2036124901338088</v>
+        <v>-0.01870080676268442</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2562440525401761</v>
+        <v>-0.01660442801816813</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1245054331692872</v>
+        <v>-0.0122173046693205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2954227382486529</v>
+        <v>-0.01634064570746632</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008163343776357967</v>
+        <v>-0.02958531457592136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4832359877499712</v>
+        <v>-0.03082092817534093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3702815256335535</v>
+        <v>-0.01731247691945591</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7731332995674872</v>
+        <v>-0.0009301814504645012</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.987241875041621</v>
+        <v>-0.02040845257314771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1218537308953028</v>
+        <v>-0.03719336404041793</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1149676279588187</v>
+        <v>0.1217704361135306</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5308419032530356</v>
+        <v>0.03431951999664297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7092561884359876</v>
+        <v>-0.1360424668951469</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.314401550726458</v>
+        <v>0.3186911859295585</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9030254652554355</v>
+        <v>0.05561650341207323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.9390387182885965</v>
+        <v>-0.2708076590841467</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6636356765573627</v>
+        <v>0.3116106986999512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2282692268490727</v>
+        <v>0.0008329986171288634</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3692680299282074</v>
+        <v>-0.3139847218990326</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.486374378204346</v>
+        <v>0.365755558013916</v>
       </c>
       <c r="C15" t="n">
-        <v>2.66978645324707</v>
+        <v>-0.0809396430850029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7195992388508516</v>
+        <v>-0.09199075129899148</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8889339186928424</v>
+        <v>0.302864204753529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3780700483105441</v>
+        <v>-0.2070000191981139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.744853258132938</v>
+        <v>0.01230060461569882</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.628608725287703</v>
+        <v>-0.3993948210369431</v>
       </c>
       <c r="C17" t="n">
-        <v>2.057380207560282</v>
+        <v>-0.9949190426956491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.074428666721691</v>
+        <v>0.3243139045820992</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.7690515951676815</v>
+        <v>-0.5972596244378523</v>
       </c>
       <c r="C18" t="n">
-        <v>1.639270782470704</v>
+        <v>-1.587486072020097</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2539533461359424</v>
+        <v>-0.9380390860817602</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.02276861396702762</v>
+        <v>-1.513376929543232</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6248873986981154</v>
+        <v>-3.357259793715038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.05406157367608758</v>
+        <v>-0.2036124901338088</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4298825345256099</v>
+        <v>-0.2562440525401761</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1093171049248081</v>
+        <v>-0.1245054331692872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0573519143191249</v>
+        <v>0.2954227382486529</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5145012542012748</v>
+        <v>0.008163343776357967</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1331963850693274</v>
+        <v>0.4832359877499712</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.3702815256335535</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.7731332995674872</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.987241875041621</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1218537308953028</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1149676279588187</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.5308419032530356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.7092561884359876</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.314401550726458</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9030254652554355</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.9390387182885965</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6636356765573627</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2282692268490727</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3692680299282074</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.486374378204346</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.66978645324707</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.7195992388508516</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8889339186928424</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3780700483105441</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.744853258132938</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.628608725287703</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.057380207560282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.074428666721691</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.7690515951676815</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.639270782470704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2539533461359424</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.02276861396702762</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6248873986981154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.05406157367608758</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4298825345256099</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1093171049248081</v>
       </c>
     </row>
   </sheetData>
